--- a/Case/rlz-add3-group.xlsx
+++ b/Case/rlz-add3-group.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>add_001</t>
   </si>
@@ -100,9 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add_002</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -110,16 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白水社区站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次侧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂名园站</t>
   </si>
 </sst>
 </file>
@@ -528,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -607,7 +599,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>23</v>
@@ -615,11 +607,9 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -641,63 +631,18 @@
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"yes,no,close,clear"</formula1>
     </dataValidation>
   </dataValidations>
